--- a/FR - Frame & Body/FR_A0400 (Floor Pan)/Cost/FR_A0400.xlsx
+++ b/FR - Frame & Body/FR_A0400 (Floor Pan)/Cost/FR_A0400.xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="172">
   <si>
     <t>University</t>
   </si>
@@ -701,6 +701,9 @@
   <si>
     <t>10 parts cut from a single machine setup</t>
   </si>
+  <si>
+    <t>Material - Aluminum</t>
+  </si>
 </sst>
 </file>
 
@@ -715,11 +718,11 @@
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="0.00000"/>
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* \-??_);_(@_)"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1567,7 +1570,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1687,12 +1690,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1734,13 +1737,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2691,12 +2694,12 @@
   </sheetPr>
   <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5298,8 +5301,8 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6445,7 +6448,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6454,7 +6457,7 @@
     <col min="2" max="2" width="33.44140625"/>
     <col min="3" max="3" width="23"/>
     <col min="4" max="6" width="10.5546875"/>
-    <col min="7" max="7" width="14.109375"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="10.5546875"/>
     <col min="13" max="13" width="15.33203125"/>
     <col min="14" max="14" width="10.5546875"/>
@@ -6877,8 +6880,12 @@
       <c r="F16" s="144">
         <v>222.6</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
+      <c r="G16" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="22">
+        <v>1</v>
+      </c>
       <c r="I16" s="28">
         <f t="shared" si="0"/>
         <v>2.226</v>
@@ -7006,7 +7013,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7014,6 +7021,7 @@
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.21875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7432,8 +7440,12 @@
       <c r="F16" s="146">
         <v>392.2</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
+      <c r="G16" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="22">
+        <v>1</v>
+      </c>
       <c r="I16" s="28">
         <f t="shared" si="0"/>
         <v>3.9220000000000002</v>
